--- a/biology/Histoire de la zoologie et de la botanique/Paul_Stein/Paul_Stein.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_Stein/Paul_Stein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Stein (Wittemberg, 3 avril 1852-Treptow, 7 septembre 1921) est un entomologiste et conservateur de musée allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de mathématiques et d'histoire naturelle à Berlin (1870-1875), il devient enseignant à Genthin (1907) puis à Treptow.
 Spécialiste des diptères et particulièrement des anthomyiidae dont il découvrit et décrivit de nombreux genres et espèces, il travailla avec Theodor Becker, Mario Bezzi et Kálmán Kertész au Katalog der Paläarktischen dipteren (1903) aujourd'hui conservé au musée d'histoire naturelle de Berlin.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die Anthomyidengruppe Homalomyia nebst ihren Gattungen und Arten, 1895
 Nordamerikanische Anthomyiden, 1897
